--- a/Ligas/Liga_brasil_B_2025.xlsx
+++ b/Ligas/Liga_brasil_B_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S162"/>
+  <dimension ref="A1:S179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11333,6 +11333,1213 @@
         </is>
       </c>
     </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>remo</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Novorizontino</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>1</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1353423</v>
+      </c>
+      <c r="G163" t="n">
+        <v>5</v>
+      </c>
+      <c r="H163" t="n">
+        <v>7</v>
+      </c>
+      <c r="I163" t="n">
+        <v>3</v>
+      </c>
+      <c r="J163" t="n">
+        <v>2</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N163" t="n">
+        <v>0</v>
+      </c>
+      <c r="O163" t="n">
+        <v>1</v>
+      </c>
+      <c r="P163" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>52%</t>
+        </is>
+      </c>
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>48%</t>
+        </is>
+      </c>
+      <c r="S163" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Atletico Goianiense</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Criciuma</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>0</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1353422</v>
+      </c>
+      <c r="G164" t="n">
+        <v>4</v>
+      </c>
+      <c r="H164" t="n">
+        <v>2</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>2</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N164" t="n">
+        <v>0</v>
+      </c>
+      <c r="O164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P164" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>56%</t>
+        </is>
+      </c>
+      <c r="R164" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="S164" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Ferroviária</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Athletic Club</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>1</v>
+      </c>
+      <c r="E165" t="n">
+        <v>2</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1353428</v>
+      </c>
+      <c r="G165" t="n">
+        <v>2</v>
+      </c>
+      <c r="H165" t="n">
+        <v>2</v>
+      </c>
+      <c r="I165" t="n">
+        <v>7</v>
+      </c>
+      <c r="J165" t="n">
+        <v>2</v>
+      </c>
+      <c r="K165" t="n">
+        <v>4</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N165" t="n">
+        <v>0</v>
+      </c>
+      <c r="O165" t="n">
+        <v>1</v>
+      </c>
+      <c r="P165" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="R165" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="S165" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Goias</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Cuiaba</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>3</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1353421</v>
+      </c>
+      <c r="G166" t="n">
+        <v>2</v>
+      </c>
+      <c r="H166" t="n">
+        <v>5</v>
+      </c>
+      <c r="I166" t="n">
+        <v>4</v>
+      </c>
+      <c r="J166" t="n">
+        <v>3</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N166" t="n">
+        <v>0</v>
+      </c>
+      <c r="O166" t="n">
+        <v>3</v>
+      </c>
+      <c r="P166" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>65%</t>
+        </is>
+      </c>
+      <c r="R166" t="inlineStr">
+        <is>
+          <t>35%</t>
+        </is>
+      </c>
+      <c r="S166" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Avai</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Vila Nova</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>1</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1353424</v>
+      </c>
+      <c r="G167" t="n">
+        <v>10</v>
+      </c>
+      <c r="H167" t="n">
+        <v>6</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>3</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0</v>
+      </c>
+      <c r="O167" t="n">
+        <v>1</v>
+      </c>
+      <c r="P167" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="R167" t="inlineStr">
+        <is>
+          <t>53%</t>
+        </is>
+      </c>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Paysandu</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>2</v>
+      </c>
+      <c r="E168" t="n">
+        <v>5</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1353420</v>
+      </c>
+      <c r="G168" t="n">
+        <v>10</v>
+      </c>
+      <c r="H168" t="n">
+        <v>2</v>
+      </c>
+      <c r="I168" t="n">
+        <v>4</v>
+      </c>
+      <c r="J168" t="n">
+        <v>2</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N168" t="n">
+        <v>0</v>
+      </c>
+      <c r="O168" t="n">
+        <v>2</v>
+      </c>
+      <c r="P168" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>67%</t>
+        </is>
+      </c>
+      <c r="R168" t="inlineStr">
+        <is>
+          <t>33%</t>
+        </is>
+      </c>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Volta Redonda</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Atletico Paranaense</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>3</v>
+      </c>
+      <c r="E169" t="n">
+        <v>2</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1353429</v>
+      </c>
+      <c r="G169" t="n">
+        <v>3</v>
+      </c>
+      <c r="H169" t="n">
+        <v>4</v>
+      </c>
+      <c r="I169" t="n">
+        <v>3</v>
+      </c>
+      <c r="J169" t="n">
+        <v>5</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N169" t="n">
+        <v>0</v>
+      </c>
+      <c r="O169" t="n">
+        <v>3</v>
+      </c>
+      <c r="P169" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Amazonas</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Botafogo SP</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>3</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1353426</v>
+      </c>
+      <c r="G170" t="n">
+        <v>1</v>
+      </c>
+      <c r="H170" t="n">
+        <v>7</v>
+      </c>
+      <c r="I170" t="n">
+        <v>2</v>
+      </c>
+      <c r="J170" t="n">
+        <v>1</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N170" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" t="n">
+        <v>3</v>
+      </c>
+      <c r="P170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="R170" t="inlineStr">
+        <is>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>America Mineiro</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Chapecoense-sc</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1353427</v>
+      </c>
+      <c r="G171" t="n">
+        <v>7</v>
+      </c>
+      <c r="H171" t="n">
+        <v>3</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>3</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N171" t="n">
+        <v>0</v>
+      </c>
+      <c r="O171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P171" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>66%</t>
+        </is>
+      </c>
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>34%</t>
+        </is>
+      </c>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Operario-PR</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Atletico Goianiense</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>3</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1353435</v>
+      </c>
+      <c r="G172" t="n">
+        <v>3</v>
+      </c>
+      <c r="H172" t="n">
+        <v>2</v>
+      </c>
+      <c r="I172" t="n">
+        <v>3</v>
+      </c>
+      <c r="J172" t="n">
+        <v>6</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L172" t="n">
+        <v>2</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N172" t="n">
+        <v>0</v>
+      </c>
+      <c r="O172" t="n">
+        <v>3</v>
+      </c>
+      <c r="P172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>54%</t>
+        </is>
+      </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Atletico Paranaense</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Ferroviária</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>1</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1353430</v>
+      </c>
+      <c r="G173" t="n">
+        <v>11</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="n">
+        <v>4</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N173" t="n">
+        <v>0</v>
+      </c>
+      <c r="O173" t="n">
+        <v>1</v>
+      </c>
+      <c r="P173" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>59%</t>
+        </is>
+      </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>41%</t>
+        </is>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Athletic Club</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>1</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1353437</v>
+      </c>
+      <c r="G174" t="n">
+        <v>5</v>
+      </c>
+      <c r="H174" t="n">
+        <v>3</v>
+      </c>
+      <c r="I174" t="n">
+        <v>2</v>
+      </c>
+      <c r="J174" t="n">
+        <v>3</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N174" t="n">
+        <v>0</v>
+      </c>
+      <c r="O174" t="n">
+        <v>1</v>
+      </c>
+      <c r="P174" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Vila Nova</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>2</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1353431</v>
+      </c>
+      <c r="G175" t="n">
+        <v>5</v>
+      </c>
+      <c r="H175" t="n">
+        <v>7</v>
+      </c>
+      <c r="I175" t="n">
+        <v>2</v>
+      </c>
+      <c r="J175" t="n">
+        <v>2</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N175" t="n">
+        <v>0</v>
+      </c>
+      <c r="O175" t="n">
+        <v>2</v>
+      </c>
+      <c r="P175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>28%</t>
+        </is>
+      </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>72%</t>
+        </is>
+      </c>
+      <c r="S175" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Chapecoense-sc</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Volta Redonda</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>4</v>
+      </c>
+      <c r="E176" t="n">
+        <v>2</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1353434</v>
+      </c>
+      <c r="G176" t="n">
+        <v>7</v>
+      </c>
+      <c r="H176" t="n">
+        <v>5</v>
+      </c>
+      <c r="I176" t="n">
+        <v>2</v>
+      </c>
+      <c r="J176" t="n">
+        <v>3</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N176" t="n">
+        <v>0</v>
+      </c>
+      <c r="O176" t="n">
+        <v>4</v>
+      </c>
+      <c r="P176" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>49%</t>
+        </is>
+      </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>51%</t>
+        </is>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Novorizontino</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Goias</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>1</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1353438</v>
+      </c>
+      <c r="G177" t="n">
+        <v>3</v>
+      </c>
+      <c r="H177" t="n">
+        <v>8</v>
+      </c>
+      <c r="I177" t="n">
+        <v>4</v>
+      </c>
+      <c r="J177" t="n">
+        <v>2</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N177" t="n">
+        <v>0</v>
+      </c>
+      <c r="O177" t="n">
+        <v>1</v>
+      </c>
+      <c r="P177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>53%</t>
+        </is>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Cuiaba</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>America Mineiro</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>3</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1353432</v>
+      </c>
+      <c r="G178" t="n">
+        <v>2</v>
+      </c>
+      <c r="H178" t="n">
+        <v>9</v>
+      </c>
+      <c r="I178" t="n">
+        <v>3</v>
+      </c>
+      <c r="J178" t="n">
+        <v>2</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N178" t="n">
+        <v>0</v>
+      </c>
+      <c r="O178" t="n">
+        <v>3</v>
+      </c>
+      <c r="P178" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>34%</t>
+        </is>
+      </c>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>66%</t>
+        </is>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Amazonas</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Paysandu</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>1</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1353436</v>
+      </c>
+      <c r="G179" t="n">
+        <v>13</v>
+      </c>
+      <c r="H179" t="n">
+        <v>3</v>
+      </c>
+      <c r="I179" t="n">
+        <v>3</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N179" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" t="n">
+        <v>1</v>
+      </c>
+      <c r="P179" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>68%</t>
+        </is>
+      </c>
+      <c r="R179" t="inlineStr">
+        <is>
+          <t>32%</t>
+        </is>
+      </c>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Ligas/Liga_brasil_B_2025.xlsx
+++ b/Ligas/Liga_brasil_B_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U200"/>
+  <dimension ref="A1:W211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,16 @@
           <t>Posesión Visita ().1</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Posesión Local ().2</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Posesión Visita ().2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -608,6 +618,8 @@
       </c>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -677,6 +689,8 @@
       </c>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -746,6 +760,8 @@
       </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -815,6 +831,8 @@
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -884,6 +902,8 @@
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -953,6 +973,8 @@
       </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1022,6 +1044,8 @@
       </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1091,6 +1115,8 @@
       </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1160,6 +1186,8 @@
       </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1229,6 +1257,8 @@
       </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1298,6 +1328,8 @@
       </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1367,6 +1399,8 @@
       </c>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1436,6 +1470,8 @@
       </c>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1505,6 +1541,8 @@
       </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1574,6 +1612,8 @@
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1643,6 +1683,8 @@
       </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1712,6 +1754,8 @@
       </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1781,6 +1825,8 @@
       </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1850,6 +1896,8 @@
       </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1919,6 +1967,8 @@
       </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1988,6 +2038,8 @@
       </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2057,6 +2109,8 @@
       </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2126,6 +2180,8 @@
       </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2195,6 +2251,8 @@
       </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2264,6 +2322,8 @@
       </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2333,6 +2393,8 @@
       </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2402,6 +2464,8 @@
       </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2471,6 +2535,8 @@
       </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2540,6 +2606,8 @@
       </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2609,6 +2677,8 @@
       </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2678,6 +2748,8 @@
       </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2747,6 +2819,8 @@
       </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2816,6 +2890,8 @@
       </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2885,6 +2961,8 @@
       </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2954,6 +3032,8 @@
       </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3023,6 +3103,8 @@
       </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3092,6 +3174,8 @@
       </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3161,6 +3245,8 @@
       </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3230,6 +3316,8 @@
       </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3299,6 +3387,8 @@
       </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3368,6 +3458,8 @@
       </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3437,6 +3529,8 @@
       </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3506,6 +3600,8 @@
       </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3575,6 +3671,8 @@
       </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3644,6 +3742,8 @@
       </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3713,6 +3813,8 @@
       </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3782,6 +3884,8 @@
       </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3851,6 +3955,8 @@
       </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3920,6 +4026,8 @@
       </c>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3989,6 +4097,8 @@
       </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4058,6 +4168,8 @@
       </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4127,6 +4239,8 @@
       </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4196,6 +4310,8 @@
       </c>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4265,6 +4381,8 @@
       </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4334,6 +4452,8 @@
       </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4403,6 +4523,8 @@
       </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4472,6 +4594,8 @@
       </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4541,6 +4665,8 @@
       </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4610,6 +4736,8 @@
       </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4679,6 +4807,8 @@
       </c>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4748,6 +4878,8 @@
       </c>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4817,6 +4949,8 @@
       </c>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4886,6 +5020,8 @@
       </c>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4955,6 +5091,8 @@
       </c>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5024,6 +5162,8 @@
       </c>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5093,6 +5233,8 @@
       </c>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5162,6 +5304,8 @@
       </c>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5231,6 +5375,8 @@
       </c>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5300,6 +5446,8 @@
       </c>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5369,6 +5517,8 @@
       </c>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5438,6 +5588,8 @@
       </c>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5507,6 +5659,8 @@
       </c>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5576,6 +5730,8 @@
       </c>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5645,6 +5801,8 @@
       </c>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5714,6 +5872,8 @@
       </c>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5783,6 +5943,8 @@
       </c>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5852,6 +6014,8 @@
       </c>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5921,6 +6085,8 @@
       </c>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5990,6 +6156,8 @@
       </c>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6059,6 +6227,8 @@
       </c>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -6128,6 +6298,8 @@
       </c>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -6197,6 +6369,8 @@
       </c>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -6266,6 +6440,8 @@
       </c>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -6335,6 +6511,8 @@
       </c>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6404,6 +6582,8 @@
       </c>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6473,6 +6653,8 @@
       </c>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6542,6 +6724,8 @@
       </c>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -6611,6 +6795,8 @@
       </c>
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6680,6 +6866,8 @@
       </c>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6749,6 +6937,8 @@
       </c>
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6818,6 +7008,8 @@
       </c>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6887,6 +7079,8 @@
       </c>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6956,6 +7150,8 @@
       </c>
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -7025,6 +7221,8 @@
       </c>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -7094,6 +7292,8 @@
       </c>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -7163,6 +7363,8 @@
       </c>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr"/>
+      <c r="W97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -7232,6 +7434,8 @@
       </c>
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr"/>
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -7301,6 +7505,8 @@
       </c>
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="inlineStr"/>
+      <c r="V99" t="inlineStr"/>
+      <c r="W99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -7370,6 +7576,8 @@
       </c>
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7439,6 +7647,8 @@
       </c>
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr"/>
+      <c r="V101" t="inlineStr"/>
+      <c r="W101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -7508,6 +7718,8 @@
       </c>
       <c r="T102" t="inlineStr"/>
       <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -7577,6 +7789,8 @@
       </c>
       <c r="T103" t="inlineStr"/>
       <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -7646,6 +7860,8 @@
       </c>
       <c r="T104" t="inlineStr"/>
       <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr"/>
+      <c r="W104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -7715,6 +7931,8 @@
       </c>
       <c r="T105" t="inlineStr"/>
       <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr"/>
+      <c r="W105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -7784,6 +8002,8 @@
       </c>
       <c r="T106" t="inlineStr"/>
       <c r="U106" t="inlineStr"/>
+      <c r="V106" t="inlineStr"/>
+      <c r="W106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7853,6 +8073,8 @@
       </c>
       <c r="T107" t="inlineStr"/>
       <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr"/>
+      <c r="W107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -7922,6 +8144,8 @@
       </c>
       <c r="T108" t="inlineStr"/>
       <c r="U108" t="inlineStr"/>
+      <c r="V108" t="inlineStr"/>
+      <c r="W108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -7991,6 +8215,8 @@
       </c>
       <c r="T109" t="inlineStr"/>
       <c r="U109" t="inlineStr"/>
+      <c r="V109" t="inlineStr"/>
+      <c r="W109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -8060,6 +8286,8 @@
       </c>
       <c r="T110" t="inlineStr"/>
       <c r="U110" t="inlineStr"/>
+      <c r="V110" t="inlineStr"/>
+      <c r="W110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -8129,6 +8357,8 @@
       </c>
       <c r="T111" t="inlineStr"/>
       <c r="U111" t="inlineStr"/>
+      <c r="V111" t="inlineStr"/>
+      <c r="W111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -8198,6 +8428,8 @@
       </c>
       <c r="T112" t="inlineStr"/>
       <c r="U112" t="inlineStr"/>
+      <c r="V112" t="inlineStr"/>
+      <c r="W112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -8267,6 +8499,8 @@
       </c>
       <c r="T113" t="inlineStr"/>
       <c r="U113" t="inlineStr"/>
+      <c r="V113" t="inlineStr"/>
+      <c r="W113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -8336,6 +8570,8 @@
       </c>
       <c r="T114" t="inlineStr"/>
       <c r="U114" t="inlineStr"/>
+      <c r="V114" t="inlineStr"/>
+      <c r="W114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -8405,6 +8641,8 @@
       </c>
       <c r="T115" t="inlineStr"/>
       <c r="U115" t="inlineStr"/>
+      <c r="V115" t="inlineStr"/>
+      <c r="W115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -8474,6 +8712,8 @@
       </c>
       <c r="T116" t="inlineStr"/>
       <c r="U116" t="inlineStr"/>
+      <c r="V116" t="inlineStr"/>
+      <c r="W116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -8543,6 +8783,8 @@
       </c>
       <c r="T117" t="inlineStr"/>
       <c r="U117" t="inlineStr"/>
+      <c r="V117" t="inlineStr"/>
+      <c r="W117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -8612,6 +8854,8 @@
       </c>
       <c r="T118" t="inlineStr"/>
       <c r="U118" t="inlineStr"/>
+      <c r="V118" t="inlineStr"/>
+      <c r="W118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -8681,6 +8925,8 @@
       </c>
       <c r="T119" t="inlineStr"/>
       <c r="U119" t="inlineStr"/>
+      <c r="V119" t="inlineStr"/>
+      <c r="W119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -8750,6 +8996,8 @@
       </c>
       <c r="T120" t="inlineStr"/>
       <c r="U120" t="inlineStr"/>
+      <c r="V120" t="inlineStr"/>
+      <c r="W120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -8819,6 +9067,8 @@
       </c>
       <c r="T121" t="inlineStr"/>
       <c r="U121" t="inlineStr"/>
+      <c r="V121" t="inlineStr"/>
+      <c r="W121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -8888,6 +9138,8 @@
       </c>
       <c r="T122" t="inlineStr"/>
       <c r="U122" t="inlineStr"/>
+      <c r="V122" t="inlineStr"/>
+      <c r="W122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -8957,6 +9209,8 @@
       </c>
       <c r="T123" t="inlineStr"/>
       <c r="U123" t="inlineStr"/>
+      <c r="V123" t="inlineStr"/>
+      <c r="W123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -9026,6 +9280,8 @@
       </c>
       <c r="T124" t="inlineStr"/>
       <c r="U124" t="inlineStr"/>
+      <c r="V124" t="inlineStr"/>
+      <c r="W124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -9095,6 +9351,8 @@
       </c>
       <c r="T125" t="inlineStr"/>
       <c r="U125" t="inlineStr"/>
+      <c r="V125" t="inlineStr"/>
+      <c r="W125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -9164,6 +9422,8 @@
       </c>
       <c r="T126" t="inlineStr"/>
       <c r="U126" t="inlineStr"/>
+      <c r="V126" t="inlineStr"/>
+      <c r="W126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -9233,6 +9493,8 @@
       </c>
       <c r="T127" t="inlineStr"/>
       <c r="U127" t="inlineStr"/>
+      <c r="V127" t="inlineStr"/>
+      <c r="W127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -9302,6 +9564,8 @@
       </c>
       <c r="T128" t="inlineStr"/>
       <c r="U128" t="inlineStr"/>
+      <c r="V128" t="inlineStr"/>
+      <c r="W128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -9371,6 +9635,8 @@
       </c>
       <c r="T129" t="inlineStr"/>
       <c r="U129" t="inlineStr"/>
+      <c r="V129" t="inlineStr"/>
+      <c r="W129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -9440,6 +9706,8 @@
       </c>
       <c r="T130" t="inlineStr"/>
       <c r="U130" t="inlineStr"/>
+      <c r="V130" t="inlineStr"/>
+      <c r="W130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -9509,6 +9777,8 @@
       </c>
       <c r="T131" t="inlineStr"/>
       <c r="U131" t="inlineStr"/>
+      <c r="V131" t="inlineStr"/>
+      <c r="W131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -9578,6 +9848,8 @@
       </c>
       <c r="T132" t="inlineStr"/>
       <c r="U132" t="inlineStr"/>
+      <c r="V132" t="inlineStr"/>
+      <c r="W132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -9647,6 +9919,8 @@
       </c>
       <c r="T133" t="inlineStr"/>
       <c r="U133" t="inlineStr"/>
+      <c r="V133" t="inlineStr"/>
+      <c r="W133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -9716,6 +9990,8 @@
       </c>
       <c r="T134" t="inlineStr"/>
       <c r="U134" t="inlineStr"/>
+      <c r="V134" t="inlineStr"/>
+      <c r="W134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -9785,6 +10061,8 @@
       </c>
       <c r="T135" t="inlineStr"/>
       <c r="U135" t="inlineStr"/>
+      <c r="V135" t="inlineStr"/>
+      <c r="W135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -9854,6 +10132,8 @@
       </c>
       <c r="T136" t="inlineStr"/>
       <c r="U136" t="inlineStr"/>
+      <c r="V136" t="inlineStr"/>
+      <c r="W136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -9923,6 +10203,8 @@
       </c>
       <c r="T137" t="inlineStr"/>
       <c r="U137" t="inlineStr"/>
+      <c r="V137" t="inlineStr"/>
+      <c r="W137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -9992,6 +10274,8 @@
       </c>
       <c r="T138" t="inlineStr"/>
       <c r="U138" t="inlineStr"/>
+      <c r="V138" t="inlineStr"/>
+      <c r="W138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -10061,6 +10345,8 @@
       </c>
       <c r="T139" t="inlineStr"/>
       <c r="U139" t="inlineStr"/>
+      <c r="V139" t="inlineStr"/>
+      <c r="W139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -10130,6 +10416,8 @@
       </c>
       <c r="T140" t="inlineStr"/>
       <c r="U140" t="inlineStr"/>
+      <c r="V140" t="inlineStr"/>
+      <c r="W140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -10199,6 +10487,8 @@
       </c>
       <c r="T141" t="inlineStr"/>
       <c r="U141" t="inlineStr"/>
+      <c r="V141" t="inlineStr"/>
+      <c r="W141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -10268,6 +10558,8 @@
       </c>
       <c r="T142" t="inlineStr"/>
       <c r="U142" t="inlineStr"/>
+      <c r="V142" t="inlineStr"/>
+      <c r="W142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -10337,6 +10629,8 @@
       </c>
       <c r="T143" t="inlineStr"/>
       <c r="U143" t="inlineStr"/>
+      <c r="V143" t="inlineStr"/>
+      <c r="W143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -10406,6 +10700,8 @@
       </c>
       <c r="T144" t="inlineStr"/>
       <c r="U144" t="inlineStr"/>
+      <c r="V144" t="inlineStr"/>
+      <c r="W144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -10475,6 +10771,8 @@
       </c>
       <c r="T145" t="inlineStr"/>
       <c r="U145" t="inlineStr"/>
+      <c r="V145" t="inlineStr"/>
+      <c r="W145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -10544,6 +10842,8 @@
       </c>
       <c r="T146" t="inlineStr"/>
       <c r="U146" t="inlineStr"/>
+      <c r="V146" t="inlineStr"/>
+      <c r="W146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -10613,6 +10913,8 @@
       </c>
       <c r="T147" t="inlineStr"/>
       <c r="U147" t="inlineStr"/>
+      <c r="V147" t="inlineStr"/>
+      <c r="W147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -10682,6 +10984,8 @@
       </c>
       <c r="T148" t="inlineStr"/>
       <c r="U148" t="inlineStr"/>
+      <c r="V148" t="inlineStr"/>
+      <c r="W148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -10751,6 +11055,8 @@
       </c>
       <c r="T149" t="inlineStr"/>
       <c r="U149" t="inlineStr"/>
+      <c r="V149" t="inlineStr"/>
+      <c r="W149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -10820,6 +11126,8 @@
       </c>
       <c r="T150" t="inlineStr"/>
       <c r="U150" t="inlineStr"/>
+      <c r="V150" t="inlineStr"/>
+      <c r="W150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -10889,6 +11197,8 @@
       </c>
       <c r="T151" t="inlineStr"/>
       <c r="U151" t="inlineStr"/>
+      <c r="V151" t="inlineStr"/>
+      <c r="W151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -10958,6 +11268,8 @@
       </c>
       <c r="T152" t="inlineStr"/>
       <c r="U152" t="inlineStr"/>
+      <c r="V152" t="inlineStr"/>
+      <c r="W152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -11027,6 +11339,8 @@
       </c>
       <c r="T153" t="inlineStr"/>
       <c r="U153" t="inlineStr"/>
+      <c r="V153" t="inlineStr"/>
+      <c r="W153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -11096,6 +11410,8 @@
       </c>
       <c r="T154" t="inlineStr"/>
       <c r="U154" t="inlineStr"/>
+      <c r="V154" t="inlineStr"/>
+      <c r="W154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -11165,6 +11481,8 @@
       </c>
       <c r="T155" t="inlineStr"/>
       <c r="U155" t="inlineStr"/>
+      <c r="V155" t="inlineStr"/>
+      <c r="W155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -11234,6 +11552,8 @@
       </c>
       <c r="T156" t="inlineStr"/>
       <c r="U156" t="inlineStr"/>
+      <c r="V156" t="inlineStr"/>
+      <c r="W156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -11303,6 +11623,8 @@
       </c>
       <c r="T157" t="inlineStr"/>
       <c r="U157" t="inlineStr"/>
+      <c r="V157" t="inlineStr"/>
+      <c r="W157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -11372,6 +11694,8 @@
       </c>
       <c r="T158" t="inlineStr"/>
       <c r="U158" t="inlineStr"/>
+      <c r="V158" t="inlineStr"/>
+      <c r="W158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -11417,13 +11741,13 @@
         <v>1</v>
       </c>
       <c r="M159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N159" t="n">
         <v>0</v>
       </c>
       <c r="O159" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P159" t="n">
         <v>0</v>
@@ -11441,6 +11765,8 @@
       </c>
       <c r="T159" t="inlineStr"/>
       <c r="U159" t="inlineStr"/>
+      <c r="V159" t="inlineStr"/>
+      <c r="W159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -11510,6 +11836,8 @@
       </c>
       <c r="T160" t="inlineStr"/>
       <c r="U160" t="inlineStr"/>
+      <c r="V160" t="inlineStr"/>
+      <c r="W160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -11555,16 +11883,16 @@
         <v>0</v>
       </c>
       <c r="M161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O161" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q161" t="n">
         <v>42</v>
@@ -11579,6 +11907,8 @@
       </c>
       <c r="T161" t="inlineStr"/>
       <c r="U161" t="inlineStr"/>
+      <c r="V161" t="inlineStr"/>
+      <c r="W161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -11624,16 +11954,16 @@
         <v>1</v>
       </c>
       <c r="M162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q162" t="n">
         <v>61</v>
@@ -11648,6 +11978,8 @@
       </c>
       <c r="T162" t="inlineStr"/>
       <c r="U162" t="inlineStr"/>
+      <c r="V162" t="inlineStr"/>
+      <c r="W162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -11693,16 +12025,16 @@
         <v>0</v>
       </c>
       <c r="M163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q163" t="n">
         <v>52</v>
@@ -11717,6 +12049,8 @@
       </c>
       <c r="T163" t="inlineStr"/>
       <c r="U163" t="inlineStr"/>
+      <c r="V163" t="inlineStr"/>
+      <c r="W163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -11786,6 +12120,8 @@
       </c>
       <c r="T164" t="inlineStr"/>
       <c r="U164" t="inlineStr"/>
+      <c r="V164" t="inlineStr"/>
+      <c r="W164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -11855,6 +12191,8 @@
       </c>
       <c r="T165" t="inlineStr"/>
       <c r="U165" t="inlineStr"/>
+      <c r="V165" t="inlineStr"/>
+      <c r="W165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -11900,13 +12238,13 @@
         <v>1</v>
       </c>
       <c r="M166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N166" t="n">
         <v>0</v>
       </c>
       <c r="O166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P166" t="n">
         <v>1</v>
@@ -11924,6 +12262,8 @@
       </c>
       <c r="T166" t="inlineStr"/>
       <c r="U166" t="inlineStr"/>
+      <c r="V166" t="inlineStr"/>
+      <c r="W166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -11993,6 +12333,8 @@
       </c>
       <c r="T167" t="inlineStr"/>
       <c r="U167" t="inlineStr"/>
+      <c r="V167" t="inlineStr"/>
+      <c r="W167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -12038,16 +12380,16 @@
         <v>0</v>
       </c>
       <c r="M168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N168" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P168" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q168" t="n">
         <v>67</v>
@@ -12062,6 +12404,8 @@
       </c>
       <c r="T168" t="inlineStr"/>
       <c r="U168" t="inlineStr"/>
+      <c r="V168" t="inlineStr"/>
+      <c r="W168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -12110,13 +12454,13 @@
         <v>0</v>
       </c>
       <c r="N169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O169" t="n">
         <v>3</v>
       </c>
       <c r="P169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q169" t="n">
         <v>42</v>
@@ -12131,6 +12475,8 @@
       </c>
       <c r="T169" t="inlineStr"/>
       <c r="U169" t="inlineStr"/>
+      <c r="V169" t="inlineStr"/>
+      <c r="W169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -12200,6 +12546,8 @@
       </c>
       <c r="T170" t="inlineStr"/>
       <c r="U170" t="inlineStr"/>
+      <c r="V170" t="inlineStr"/>
+      <c r="W170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -12248,13 +12596,13 @@
         <v>0</v>
       </c>
       <c r="N171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O171" t="n">
         <v>0</v>
       </c>
       <c r="P171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q171" t="n">
         <v>66</v>
@@ -12269,6 +12617,8 @@
       </c>
       <c r="T171" t="inlineStr"/>
       <c r="U171" t="inlineStr"/>
+      <c r="V171" t="inlineStr"/>
+      <c r="W171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -12338,6 +12688,8 @@
       </c>
       <c r="T172" t="inlineStr"/>
       <c r="U172" t="inlineStr"/>
+      <c r="V172" t="inlineStr"/>
+      <c r="W172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -12407,6 +12759,8 @@
       </c>
       <c r="T173" t="inlineStr"/>
       <c r="U173" t="inlineStr"/>
+      <c r="V173" t="inlineStr"/>
+      <c r="W173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -12452,16 +12806,16 @@
         <v>0</v>
       </c>
       <c r="M174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q174" t="n">
         <v>42</v>
@@ -12476,6 +12830,8 @@
       </c>
       <c r="T174" t="inlineStr"/>
       <c r="U174" t="inlineStr"/>
+      <c r="V174" t="inlineStr"/>
+      <c r="W174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -12521,13 +12877,13 @@
         <v>0</v>
       </c>
       <c r="M175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N175" t="n">
         <v>0</v>
       </c>
       <c r="O175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P175" t="n">
         <v>0</v>
@@ -12545,6 +12901,8 @@
       </c>
       <c r="T175" t="inlineStr"/>
       <c r="U175" t="inlineStr"/>
+      <c r="V175" t="inlineStr"/>
+      <c r="W175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -12590,16 +12948,16 @@
         <v>0</v>
       </c>
       <c r="M176" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O176" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q176" t="n">
         <v>49</v>
@@ -12614,6 +12972,8 @@
       </c>
       <c r="T176" t="inlineStr"/>
       <c r="U176" t="inlineStr"/>
+      <c r="V176" t="inlineStr"/>
+      <c r="W176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -12659,13 +13019,13 @@
         <v>0</v>
       </c>
       <c r="M177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N177" t="n">
         <v>0</v>
       </c>
       <c r="O177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P177" t="n">
         <v>0</v>
@@ -12683,6 +13043,8 @@
       </c>
       <c r="T177" t="inlineStr"/>
       <c r="U177" t="inlineStr"/>
+      <c r="V177" t="inlineStr"/>
+      <c r="W177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -12728,16 +13090,16 @@
         <v>1</v>
       </c>
       <c r="M178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q178" t="n">
         <v>34</v>
@@ -12752,6 +13114,8 @@
       </c>
       <c r="T178" t="inlineStr"/>
       <c r="U178" t="inlineStr"/>
+      <c r="V178" t="inlineStr"/>
+      <c r="W178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -12800,13 +13164,13 @@
         <v>0</v>
       </c>
       <c r="N179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O179" t="n">
         <v>1</v>
       </c>
       <c r="P179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q179" t="n">
         <v>68</v>
@@ -12821,6 +13185,8 @@
       </c>
       <c r="T179" t="inlineStr"/>
       <c r="U179" t="inlineStr"/>
+      <c r="V179" t="inlineStr"/>
+      <c r="W179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -12866,16 +13232,16 @@
         <v>1</v>
       </c>
       <c r="M180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q180" t="n">
         <v>50</v>
@@ -12890,6 +13256,8 @@
       </c>
       <c r="T180" t="inlineStr"/>
       <c r="U180" t="inlineStr"/>
+      <c r="V180" t="inlineStr"/>
+      <c r="W180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -12959,6 +13327,8 @@
       </c>
       <c r="T181" t="inlineStr"/>
       <c r="U181" t="inlineStr"/>
+      <c r="V181" t="inlineStr"/>
+      <c r="W181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -13004,13 +13374,13 @@
         <v>0</v>
       </c>
       <c r="M182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N182" t="n">
         <v>0</v>
       </c>
       <c r="O182" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P182" t="n">
         <v>0</v>
@@ -13028,6 +13398,8 @@
       </c>
       <c r="T182" t="inlineStr"/>
       <c r="U182" t="inlineStr"/>
+      <c r="V182" t="inlineStr"/>
+      <c r="W182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -13073,13 +13445,13 @@
         <v>0</v>
       </c>
       <c r="M183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N183" t="n">
         <v>0</v>
       </c>
       <c r="O183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P183" t="n">
         <v>1</v>
@@ -13097,6 +13469,8 @@
       </c>
       <c r="T183" t="inlineStr"/>
       <c r="U183" t="inlineStr"/>
+      <c r="V183" t="inlineStr"/>
+      <c r="W183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -13142,13 +13516,13 @@
         <v>0</v>
       </c>
       <c r="M184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N184" t="n">
         <v>0</v>
       </c>
       <c r="O184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P184" t="n">
         <v>1</v>
@@ -13166,6 +13540,8 @@
       </c>
       <c r="T184" t="inlineStr"/>
       <c r="U184" t="inlineStr"/>
+      <c r="V184" t="inlineStr"/>
+      <c r="W184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -13214,13 +13590,13 @@
         <v>0</v>
       </c>
       <c r="N185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O185" t="n">
         <v>2</v>
       </c>
       <c r="P185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q185" t="n">
         <v>54</v>
@@ -13235,6 +13611,8 @@
       </c>
       <c r="T185" t="inlineStr"/>
       <c r="U185" t="inlineStr"/>
+      <c r="V185" t="inlineStr"/>
+      <c r="W185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -13304,6 +13682,8 @@
       </c>
       <c r="T186" t="inlineStr"/>
       <c r="U186" t="inlineStr"/>
+      <c r="V186" t="inlineStr"/>
+      <c r="W186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -13349,13 +13729,13 @@
         <v>0</v>
       </c>
       <c r="M187" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N187" t="n">
         <v>0</v>
       </c>
       <c r="O187" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P187" t="n">
         <v>0</v>
@@ -13373,6 +13753,8 @@
       </c>
       <c r="T187" t="inlineStr"/>
       <c r="U187" t="inlineStr"/>
+      <c r="V187" t="inlineStr"/>
+      <c r="W187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -13418,16 +13800,16 @@
         <v>0</v>
       </c>
       <c r="M188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q188" t="n">
         <v>46</v>
@@ -13442,6 +13824,8 @@
       </c>
       <c r="T188" t="inlineStr"/>
       <c r="U188" t="inlineStr"/>
+      <c r="V188" t="inlineStr"/>
+      <c r="W188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -13487,13 +13871,13 @@
         <v>0</v>
       </c>
       <c r="M189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N189" t="n">
         <v>0</v>
       </c>
       <c r="O189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P189" t="n">
         <v>0</v>
@@ -13511,6 +13895,8 @@
       </c>
       <c r="T189" t="inlineStr"/>
       <c r="U189" t="inlineStr"/>
+      <c r="V189" t="inlineStr"/>
+      <c r="W189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -13559,13 +13945,13 @@
         <v>0</v>
       </c>
       <c r="N190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O190" t="n">
         <v>1</v>
       </c>
       <c r="P190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q190" t="n">
         <v>65</v>
@@ -13580,6 +13966,8 @@
       </c>
       <c r="T190" t="inlineStr"/>
       <c r="U190" t="inlineStr"/>
+      <c r="V190" t="inlineStr"/>
+      <c r="W190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -13625,16 +14013,16 @@
         <v>1</v>
       </c>
       <c r="M191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q191" t="n">
         <v>58</v>
@@ -13649,6 +14037,8 @@
       </c>
       <c r="T191" t="inlineStr"/>
       <c r="U191" t="inlineStr"/>
+      <c r="V191" t="inlineStr"/>
+      <c r="W191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -13697,13 +14087,13 @@
         <v>0</v>
       </c>
       <c r="N192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O192" t="n">
         <v>0</v>
       </c>
       <c r="P192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q192" t="n">
         <v>45</v>
@@ -13718,6 +14108,8 @@
       </c>
       <c r="T192" t="inlineStr"/>
       <c r="U192" t="inlineStr"/>
+      <c r="V192" t="inlineStr"/>
+      <c r="W192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -13787,6 +14179,8 @@
       </c>
       <c r="T193" t="inlineStr"/>
       <c r="U193" t="inlineStr"/>
+      <c r="V193" t="inlineStr"/>
+      <c r="W193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -13832,16 +14226,16 @@
         <v>0</v>
       </c>
       <c r="M194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q194" t="n">
         <v>51</v>
@@ -13856,6 +14250,8 @@
       </c>
       <c r="T194" t="inlineStr"/>
       <c r="U194" t="inlineStr"/>
+      <c r="V194" t="inlineStr"/>
+      <c r="W194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -13901,16 +14297,16 @@
         <v>0</v>
       </c>
       <c r="M195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q195" t="n">
         <v>55</v>
@@ -13925,6 +14321,8 @@
       </c>
       <c r="T195" t="inlineStr"/>
       <c r="U195" t="inlineStr"/>
+      <c r="V195" t="inlineStr"/>
+      <c r="W195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -13970,13 +14368,13 @@
         <v>0</v>
       </c>
       <c r="M196" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N196" t="n">
         <v>0</v>
       </c>
       <c r="O196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P196" t="n">
         <v>2</v>
@@ -13994,6 +14392,8 @@
       </c>
       <c r="T196" t="inlineStr"/>
       <c r="U196" t="inlineStr"/>
+      <c r="V196" t="inlineStr"/>
+      <c r="W196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -14039,16 +14439,16 @@
         <v>0</v>
       </c>
       <c r="M197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q197" t="n">
         <v>60</v>
@@ -14063,6 +14463,8 @@
       </c>
       <c r="T197" t="inlineStr"/>
       <c r="U197" t="inlineStr"/>
+      <c r="V197" t="inlineStr"/>
+      <c r="W197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -14132,6 +14534,8 @@
       </c>
       <c r="T198" t="inlineStr"/>
       <c r="U198" t="inlineStr"/>
+      <c r="V198" t="inlineStr"/>
+      <c r="W198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -14177,16 +14581,16 @@
         <v>0</v>
       </c>
       <c r="M199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q199" t="n">
         <v>52</v>
@@ -14201,6 +14605,8 @@
       </c>
       <c r="T199" t="inlineStr"/>
       <c r="U199" t="inlineStr"/>
+      <c r="V199" t="inlineStr"/>
+      <c r="W199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -14246,13 +14652,13 @@
         <v>0</v>
       </c>
       <c r="M200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N200" t="n">
         <v>0</v>
       </c>
       <c r="O200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P200" t="n">
         <v>0</v>
@@ -14270,6 +14676,789 @@
       </c>
       <c r="T200" t="inlineStr"/>
       <c r="U200" t="inlineStr"/>
+      <c r="V200" t="inlineStr"/>
+      <c r="W200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Ferroviária</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Amazonas</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>2</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1353468</v>
+      </c>
+      <c r="G201" t="n">
+        <v>9</v>
+      </c>
+      <c r="H201" t="n">
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>2</v>
+      </c>
+      <c r="J201" t="n">
+        <v>3</v>
+      </c>
+      <c r="K201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L201" t="n">
+        <v>0</v>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="n">
+        <v>0</v>
+      </c>
+      <c r="O201" t="n">
+        <v>1</v>
+      </c>
+      <c r="P201" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q201" t="n">
+        <v>60</v>
+      </c>
+      <c r="R201" t="n">
+        <v>40</v>
+      </c>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T201" t="inlineStr"/>
+      <c r="U201" t="inlineStr"/>
+      <c r="V201" t="inlineStr"/>
+      <c r="W201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Chapecoense-sc</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>0</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1353460</v>
+      </c>
+      <c r="G202" t="n">
+        <v>4</v>
+      </c>
+      <c r="H202" t="n">
+        <v>3</v>
+      </c>
+      <c r="I202" t="n">
+        <v>3</v>
+      </c>
+      <c r="J202" t="n">
+        <v>3</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0</v>
+      </c>
+      <c r="L202" t="n">
+        <v>0</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0</v>
+      </c>
+      <c r="N202" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" t="n">
+        <v>0</v>
+      </c>
+      <c r="P202" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q202" t="n">
+        <v>54</v>
+      </c>
+      <c r="R202" t="n">
+        <v>46</v>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="T202" t="inlineStr"/>
+      <c r="U202" t="inlineStr"/>
+      <c r="V202" t="inlineStr"/>
+      <c r="W202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>America Mineiro</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>remo</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>0</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1353467</v>
+      </c>
+      <c r="G203" t="n">
+        <v>9</v>
+      </c>
+      <c r="H203" t="n">
+        <v>3</v>
+      </c>
+      <c r="I203" t="n">
+        <v>1</v>
+      </c>
+      <c r="J203" t="n">
+        <v>1</v>
+      </c>
+      <c r="K203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L203" t="n">
+        <v>0</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0</v>
+      </c>
+      <c r="N203" t="n">
+        <v>1</v>
+      </c>
+      <c r="O203" t="n">
+        <v>0</v>
+      </c>
+      <c r="P203" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q203" t="n">
+        <v>61</v>
+      </c>
+      <c r="R203" t="n">
+        <v>39</v>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="T203" t="inlineStr"/>
+      <c r="U203" t="inlineStr"/>
+      <c r="V203" t="inlineStr"/>
+      <c r="W203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Goias</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Operario-PR</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>2</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1353461</v>
+      </c>
+      <c r="G204" t="n">
+        <v>4</v>
+      </c>
+      <c r="H204" t="n">
+        <v>3</v>
+      </c>
+      <c r="I204" t="n">
+        <v>1</v>
+      </c>
+      <c r="J204" t="n">
+        <v>4</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L204" t="n">
+        <v>0</v>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="n">
+        <v>1</v>
+      </c>
+      <c r="O204" t="n">
+        <v>1</v>
+      </c>
+      <c r="P204" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q204" t="n">
+        <v>43</v>
+      </c>
+      <c r="R204" t="n">
+        <v>57</v>
+      </c>
+      <c r="S204" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T204" t="inlineStr"/>
+      <c r="U204" t="inlineStr"/>
+      <c r="V204" t="inlineStr"/>
+      <c r="W204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Volta Redonda</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Novorizontino</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0</v>
+      </c>
+      <c r="F205" t="n">
+        <v>1353469</v>
+      </c>
+      <c r="G205" t="n">
+        <v>11</v>
+      </c>
+      <c r="H205" t="n">
+        <v>4</v>
+      </c>
+      <c r="I205" t="n">
+        <v>3</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L205" t="n">
+        <v>0</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0</v>
+      </c>
+      <c r="N205" t="n">
+        <v>0</v>
+      </c>
+      <c r="O205" t="n">
+        <v>0</v>
+      </c>
+      <c r="P205" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q205" t="n">
+        <v>53</v>
+      </c>
+      <c r="R205" t="n">
+        <v>47</v>
+      </c>
+      <c r="S205" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="T205" t="inlineStr"/>
+      <c r="U205" t="inlineStr"/>
+      <c r="V205" t="inlineStr"/>
+      <c r="W205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Avai</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Cuiaba</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>2</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0</v>
+      </c>
+      <c r="F206" t="n">
+        <v>1353464</v>
+      </c>
+      <c r="G206" t="n">
+        <v>1</v>
+      </c>
+      <c r="H206" t="n">
+        <v>10</v>
+      </c>
+      <c r="I206" t="n">
+        <v>1</v>
+      </c>
+      <c r="J206" t="n">
+        <v>2</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L206" t="n">
+        <v>0</v>
+      </c>
+      <c r="M206" t="n">
+        <v>2</v>
+      </c>
+      <c r="N206" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" t="n">
+        <v>0</v>
+      </c>
+      <c r="P206" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q206" t="n">
+        <v>36</v>
+      </c>
+      <c r="R206" t="n">
+        <v>64</v>
+      </c>
+      <c r="S206" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T206" t="inlineStr"/>
+      <c r="U206" t="inlineStr"/>
+      <c r="V206" t="inlineStr"/>
+      <c r="W206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Atletico Goianiense</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Botafogo SP</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>2</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0</v>
+      </c>
+      <c r="F207" t="n">
+        <v>1353462</v>
+      </c>
+      <c r="G207" t="n">
+        <v>5</v>
+      </c>
+      <c r="H207" t="n">
+        <v>5</v>
+      </c>
+      <c r="I207" t="n">
+        <v>2</v>
+      </c>
+      <c r="J207" t="n">
+        <v>2</v>
+      </c>
+      <c r="K207" t="n">
+        <v>0</v>
+      </c>
+      <c r="L207" t="n">
+        <v>0</v>
+      </c>
+      <c r="M207" t="n">
+        <v>0</v>
+      </c>
+      <c r="N207" t="n">
+        <v>0</v>
+      </c>
+      <c r="O207" t="n">
+        <v>2</v>
+      </c>
+      <c r="P207" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q207" t="n">
+        <v>61</v>
+      </c>
+      <c r="R207" t="n">
+        <v>39</v>
+      </c>
+      <c r="S207" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T207" t="inlineStr"/>
+      <c r="U207" t="inlineStr"/>
+      <c r="V207" t="inlineStr"/>
+      <c r="W207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Criciuma</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Atletico Paranaense</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>4</v>
+      </c>
+      <c r="E208" t="n">
+        <v>2</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1353465</v>
+      </c>
+      <c r="G208" t="n">
+        <v>4</v>
+      </c>
+      <c r="H208" t="n">
+        <v>5</v>
+      </c>
+      <c r="I208" t="n">
+        <v>3</v>
+      </c>
+      <c r="J208" t="n">
+        <v>3</v>
+      </c>
+      <c r="K208" t="n">
+        <v>0</v>
+      </c>
+      <c r="L208" t="n">
+        <v>0</v>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="n">
+        <v>2</v>
+      </c>
+      <c r="O208" t="n">
+        <v>3</v>
+      </c>
+      <c r="P208" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q208" t="n">
+        <v>51</v>
+      </c>
+      <c r="R208" t="n">
+        <v>49</v>
+      </c>
+      <c r="S208" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T208" t="inlineStr"/>
+      <c r="U208" t="inlineStr"/>
+      <c r="V208" t="inlineStr"/>
+      <c r="W208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Paysandu</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Vila Nova</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1</v>
+      </c>
+      <c r="F209" t="n">
+        <v>1353463</v>
+      </c>
+      <c r="G209" t="n">
+        <v>9</v>
+      </c>
+      <c r="H209" t="n">
+        <v>5</v>
+      </c>
+      <c r="I209" t="n">
+        <v>1</v>
+      </c>
+      <c r="J209" t="n">
+        <v>2</v>
+      </c>
+      <c r="K209" t="n">
+        <v>0</v>
+      </c>
+      <c r="L209" t="n">
+        <v>0</v>
+      </c>
+      <c r="M209" t="n">
+        <v>0</v>
+      </c>
+      <c r="N209" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" t="n">
+        <v>0</v>
+      </c>
+      <c r="P209" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q209" t="n">
+        <v>59</v>
+      </c>
+      <c r="R209" t="n">
+        <v>41</v>
+      </c>
+      <c r="S209" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="T209" t="inlineStr"/>
+      <c r="U209" t="inlineStr"/>
+      <c r="V209" t="inlineStr"/>
+      <c r="W209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Athletic Club</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>1</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0</v>
+      </c>
+      <c r="F210" t="n">
+        <v>1353466</v>
+      </c>
+      <c r="G210" t="n">
+        <v>8</v>
+      </c>
+      <c r="H210" t="n">
+        <v>4</v>
+      </c>
+      <c r="I210" t="n">
+        <v>1</v>
+      </c>
+      <c r="J210" t="n">
+        <v>2</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="n">
+        <v>0</v>
+      </c>
+      <c r="N210" t="n">
+        <v>0</v>
+      </c>
+      <c r="O210" t="n">
+        <v>1</v>
+      </c>
+      <c r="P210" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q210" t="n">
+        <v>48</v>
+      </c>
+      <c r="R210" t="n">
+        <v>52</v>
+      </c>
+      <c r="S210" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T210" t="inlineStr"/>
+      <c r="U210" t="inlineStr"/>
+      <c r="V210" t="inlineStr"/>
+      <c r="W210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Novorizontino</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>1</v>
+      </c>
+      <c r="E211" t="n">
+        <v>2</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1353478</v>
+      </c>
+      <c r="G211" t="n">
+        <v>4</v>
+      </c>
+      <c r="H211" t="n">
+        <v>6</v>
+      </c>
+      <c r="I211" t="n">
+        <v>5</v>
+      </c>
+      <c r="J211" t="n">
+        <v>4</v>
+      </c>
+      <c r="K211" t="n">
+        <v>0</v>
+      </c>
+      <c r="L211" t="n">
+        <v>0</v>
+      </c>
+      <c r="M211" t="n">
+        <v>0</v>
+      </c>
+      <c r="N211" t="n">
+        <v>1</v>
+      </c>
+      <c r="O211" t="n">
+        <v>1</v>
+      </c>
+      <c r="P211" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q211" t="n">
+        <v>58</v>
+      </c>
+      <c r="R211" t="n">
+        <v>42</v>
+      </c>
+      <c r="S211" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="T211" t="inlineStr"/>
+      <c r="U211" t="inlineStr"/>
+      <c r="V211" t="inlineStr"/>
+      <c r="W211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
